--- a/frontend/web/pricelist_batch_editing.xlsx
+++ b/frontend/web/pricelist_batch_editing.xlsx
@@ -2948,10 +2948,10 @@
         <v>810.0</v>
       </c>
       <c r="E4">
-        <v>81000</v>
+        <v>87490</v>
       </c>
       <c r="F4">
-        <v>810</v>
+        <v>874.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2968,10 +2968,10 @@
         <v>900.0</v>
       </c>
       <c r="E5">
-        <v>90000</v>
+        <v>97210</v>
       </c>
       <c r="F5">
-        <v>900</v>
+        <v>972.1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2988,10 +2988,10 @@
         <v>990.0</v>
       </c>
       <c r="E6">
-        <v>99000</v>
+        <v>106930</v>
       </c>
       <c r="F6">
-        <v>990</v>
+        <v>1069.3</v>
       </c>
     </row>
   </sheetData>
@@ -3005,7 +3005,7 @@
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;CЛечение ортодонтическое с применение брекет систем</oddHeader>
-    <oddFooter>&amp;L25.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
+    <oddFooter>&amp;L26.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -3084,10 +3084,10 @@
         <v>7.9</v>
       </c>
       <c r="E4">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="F4">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3104,10 +3104,10 @@
         <v>7.3</v>
       </c>
       <c r="E5">
-        <v>730</v>
+        <v>790</v>
       </c>
       <c r="F5">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3124,10 +3124,10 @@
         <v>6.2</v>
       </c>
       <c r="E6">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="F6">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3144,10 +3144,10 @@
         <v>6.2</v>
       </c>
       <c r="E7">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="F7">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3164,10 +3164,10 @@
         <v>7.3</v>
       </c>
       <c r="E8">
-        <v>730</v>
+        <v>790</v>
       </c>
       <c r="F8">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3184,10 +3184,10 @@
         <v>6.2</v>
       </c>
       <c r="E9">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="F9">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3204,10 +3204,10 @@
         <v>5.7</v>
       </c>
       <c r="E10">
-        <v>570</v>
+        <v>620</v>
       </c>
       <c r="F10">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3224,10 +3224,10 @@
         <v>5.7</v>
       </c>
       <c r="E11">
-        <v>570</v>
+        <v>620</v>
       </c>
       <c r="F11">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3244,10 +3244,10 @@
         <v>6.2</v>
       </c>
       <c r="E12">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="F12">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3264,10 +3264,10 @@
         <v>5.7</v>
       </c>
       <c r="E13">
-        <v>570</v>
+        <v>620</v>
       </c>
       <c r="F13">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3284,10 +3284,10 @@
         <v>5.0</v>
       </c>
       <c r="E14">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3304,10 +3304,10 @@
         <v>5.0</v>
       </c>
       <c r="E15">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3349,10 +3349,10 @@
         <v>14.7</v>
       </c>
       <c r="E18">
-        <v>1470</v>
+        <v>1590</v>
       </c>
       <c r="F18">
-        <v>14.7</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3369,10 +3369,10 @@
         <v>12.4</v>
       </c>
       <c r="E19">
-        <v>1240</v>
+        <v>1340</v>
       </c>
       <c r="F19">
-        <v>12.4</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3389,10 +3389,10 @@
         <v>11.2</v>
       </c>
       <c r="E20">
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="F20">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3409,10 +3409,10 @@
         <v>10.7</v>
       </c>
       <c r="E21">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F21">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3429,10 +3429,10 @@
         <v>12.4</v>
       </c>
       <c r="E22">
-        <v>1240</v>
+        <v>1340</v>
       </c>
       <c r="F22">
-        <v>12.4</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3449,10 +3449,10 @@
         <v>11.2</v>
       </c>
       <c r="E23">
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="F23">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3469,10 +3469,10 @@
         <v>10.7</v>
       </c>
       <c r="E24">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F24">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3489,10 +3489,10 @@
         <v>10.2</v>
       </c>
       <c r="E25">
-        <v>1020</v>
+        <v>1110</v>
       </c>
       <c r="F25">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3509,10 +3509,10 @@
         <v>11.2</v>
       </c>
       <c r="E26">
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="F26">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3529,10 +3529,10 @@
         <v>9.2</v>
       </c>
       <c r="E27">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="F27">
-        <v>9.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3549,10 +3549,10 @@
         <v>9.0</v>
       </c>
       <c r="E28">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3569,10 +3569,10 @@
         <v>8.5</v>
       </c>
       <c r="E29">
-        <v>850</v>
+        <v>920</v>
       </c>
       <c r="F29">
-        <v>8.5</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3589,10 +3589,10 @@
         <v>11.2</v>
       </c>
       <c r="E30">
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="F30">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3609,10 +3609,10 @@
         <v>12.4</v>
       </c>
       <c r="E31">
-        <v>1240</v>
+        <v>1340</v>
       </c>
       <c r="F31">
-        <v>12.4</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3654,10 +3654,10 @@
         <v>14.7</v>
       </c>
       <c r="E34">
-        <v>1470</v>
+        <v>1590</v>
       </c>
       <c r="F34">
-        <v>14.7</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3674,10 +3674,10 @@
         <v>12.4</v>
       </c>
       <c r="E35">
-        <v>1240</v>
+        <v>1340</v>
       </c>
       <c r="F35">
-        <v>12.4</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3694,10 +3694,10 @@
         <v>11.2</v>
       </c>
       <c r="E36">
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="F36">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3714,10 +3714,10 @@
         <v>11.2</v>
       </c>
       <c r="E37">
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="F37">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3734,10 +3734,10 @@
         <v>12.4</v>
       </c>
       <c r="E38">
-        <v>1240</v>
+        <v>1340</v>
       </c>
       <c r="F38">
-        <v>12.4</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3754,10 +3754,10 @@
         <v>11.2</v>
       </c>
       <c r="E39">
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="F39">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3774,10 +3774,10 @@
         <v>10.7</v>
       </c>
       <c r="E40">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F40">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3794,10 +3794,10 @@
         <v>10.2</v>
       </c>
       <c r="E41">
-        <v>1020</v>
+        <v>1110</v>
       </c>
       <c r="F41">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3814,10 +3814,10 @@
         <v>11.2</v>
       </c>
       <c r="E42">
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="F42">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3834,10 +3834,10 @@
         <v>9.5</v>
       </c>
       <c r="E43">
-        <v>950</v>
+        <v>1030</v>
       </c>
       <c r="F43">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3854,10 +3854,10 @@
         <v>9.0</v>
       </c>
       <c r="E44">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3874,10 +3874,10 @@
         <v>8.5</v>
       </c>
       <c r="E45">
-        <v>850</v>
+        <v>920</v>
       </c>
       <c r="F45">
-        <v>8.5</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3919,10 +3919,10 @@
         <v>24.2</v>
       </c>
       <c r="E48">
-        <v>2420</v>
+        <v>2620</v>
       </c>
       <c r="F48">
-        <v>24.2</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3939,10 +3939,10 @@
         <v>27.9</v>
       </c>
       <c r="E49">
-        <v>2790</v>
+        <v>3020</v>
       </c>
       <c r="F49">
-        <v>27.9</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3959,10 +3959,10 @@
         <v>22.4</v>
       </c>
       <c r="E50">
-        <v>2240</v>
+        <v>2420</v>
       </c>
       <c r="F50">
-        <v>22.4</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3979,10 +3979,10 @@
         <v>18.3</v>
       </c>
       <c r="E51">
-        <v>1830</v>
+        <v>1980</v>
       </c>
       <c r="F51">
-        <v>18.3</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3999,10 +3999,10 @@
         <v>18.0</v>
       </c>
       <c r="E52">
-        <v>1800</v>
+        <v>1950</v>
       </c>
       <c r="F52">
-        <v>18</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4019,10 +4019,10 @@
         <v>16.9</v>
       </c>
       <c r="E53">
-        <v>1690</v>
+        <v>1830</v>
       </c>
       <c r="F53">
-        <v>16.9</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4039,10 +4039,10 @@
         <v>16.9</v>
       </c>
       <c r="E54">
-        <v>1690</v>
+        <v>1830</v>
       </c>
       <c r="F54">
-        <v>16.9</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4059,10 +4059,10 @@
         <v>15.9</v>
       </c>
       <c r="E55">
-        <v>1590</v>
+        <v>1720</v>
       </c>
       <c r="F55">
-        <v>15.9</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4079,10 +4079,10 @@
         <v>15.2</v>
       </c>
       <c r="E56">
-        <v>1520</v>
+        <v>1650</v>
       </c>
       <c r="F56">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4099,10 +4099,10 @@
         <v>14.9</v>
       </c>
       <c r="E57">
-        <v>1490</v>
+        <v>1610</v>
       </c>
       <c r="F57">
-        <v>14.9</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4119,10 +4119,10 @@
         <v>14.9</v>
       </c>
       <c r="E58">
-        <v>1490</v>
+        <v>1610</v>
       </c>
       <c r="F58">
-        <v>14.9</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4139,10 +4139,10 @@
         <v>14.7</v>
       </c>
       <c r="E59">
-        <v>1470</v>
+        <v>1590</v>
       </c>
       <c r="F59">
-        <v>14.7</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4159,10 +4159,10 @@
         <v>14.0</v>
       </c>
       <c r="E60">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4179,10 +4179,10 @@
         <v>13.2</v>
       </c>
       <c r="E61">
-        <v>1320</v>
+        <v>1430</v>
       </c>
       <c r="F61">
-        <v>13.2</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4224,10 +4224,10 @@
         <v>1.7</v>
       </c>
       <c r="E64">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F64">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4244,10 +4244,10 @@
         <v>2.8</v>
       </c>
       <c r="E65">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F65">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4264,10 +4264,10 @@
         <v>48.4</v>
       </c>
       <c r="E66">
-        <v>4840</v>
+        <v>5230</v>
       </c>
       <c r="F66">
-        <v>48.4</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4284,10 +4284,10 @@
         <v>4.0</v>
       </c>
       <c r="E67">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4304,10 +4304,10 @@
         <v>2.2</v>
       </c>
       <c r="E68">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F68">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4324,10 +4324,10 @@
         <v>3.4</v>
       </c>
       <c r="E69">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="F69">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4344,10 +4344,10 @@
         <v>1.7</v>
       </c>
       <c r="E70">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F70">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4364,10 +4364,10 @@
         <v>2.5</v>
       </c>
       <c r="E71">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F71">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4384,10 +4384,10 @@
         <v>1.7</v>
       </c>
       <c r="E72">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F72">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4404,10 +4404,10 @@
         <v>1.2</v>
       </c>
       <c r="E73">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F73">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4424,10 +4424,10 @@
         <v>0.4</v>
       </c>
       <c r="E74">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F74">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4444,10 +4444,10 @@
         <v>0.4</v>
       </c>
       <c r="E75">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F75">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4464,10 +4464,10 @@
         <v>5.0</v>
       </c>
       <c r="E76">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4484,10 +4484,10 @@
         <v>0.5</v>
       </c>
       <c r="E77">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F77">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4504,10 +4504,10 @@
         <v>4.3</v>
       </c>
       <c r="E78">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="F78">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4549,10 +4549,10 @@
         <v>49.2</v>
       </c>
       <c r="E81">
-        <v>4920</v>
+        <v>5320</v>
       </c>
       <c r="F81">
-        <v>49.2</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4569,10 +4569,10 @@
         <v>48.4</v>
       </c>
       <c r="E82">
-        <v>4840</v>
+        <v>5230</v>
       </c>
       <c r="F82">
-        <v>48.4</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4589,10 +4589,10 @@
         <v>6.7</v>
       </c>
       <c r="E83">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="F83">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4609,10 +4609,10 @@
         <v>10.2</v>
       </c>
       <c r="E84">
-        <v>1020</v>
+        <v>1110</v>
       </c>
       <c r="F84">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4629,10 +4629,10 @@
         <v>9.5</v>
       </c>
       <c r="E85">
-        <v>950</v>
+        <v>1030</v>
       </c>
       <c r="F85">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4649,10 +4649,10 @@
         <v>2.2</v>
       </c>
       <c r="E86">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F86">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4669,10 +4669,10 @@
         <v>4.0</v>
       </c>
       <c r="E87">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4689,10 +4689,10 @@
         <v>2.2</v>
       </c>
       <c r="E88">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F88">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4709,10 +4709,10 @@
         <v>1.7</v>
       </c>
       <c r="E89">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F89">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4729,10 +4729,10 @@
         <v>1.7</v>
       </c>
       <c r="E90">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F90">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4749,10 +4749,10 @@
         <v>5.7</v>
       </c>
       <c r="E91">
-        <v>570</v>
+        <v>620</v>
       </c>
       <c r="F91">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4769,10 +4769,10 @@
         <v>2.7</v>
       </c>
       <c r="E92">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="F92">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4789,10 +4789,10 @@
         <v>2.7</v>
       </c>
       <c r="E93">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="F93">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4809,10 +4809,10 @@
         <v>1.7</v>
       </c>
       <c r="E94">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F94">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4829,10 +4829,10 @@
         <v>8.5</v>
       </c>
       <c r="E95">
-        <v>850</v>
+        <v>920</v>
       </c>
       <c r="F95">
-        <v>8.5</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4849,10 +4849,10 @@
         <v>5.0</v>
       </c>
       <c r="E96">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4869,10 +4869,10 @@
         <v>3.4</v>
       </c>
       <c r="E97">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="F97">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4914,10 +4914,10 @@
         <v>2.8</v>
       </c>
       <c r="E100">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F100">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4934,10 +4934,10 @@
         <v>2.8</v>
       </c>
       <c r="E101">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F101">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4954,10 +4954,10 @@
         <v>2.8</v>
       </c>
       <c r="E102">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F102">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4974,10 +4974,10 @@
         <v>4.5</v>
       </c>
       <c r="E103">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="F103">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4994,10 +4994,10 @@
         <v>12.9</v>
       </c>
       <c r="E104">
-        <v>1290</v>
+        <v>1400</v>
       </c>
       <c r="F104">
-        <v>12.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5014,10 +5014,10 @@
         <v>10.2</v>
       </c>
       <c r="E105">
-        <v>1020</v>
+        <v>1110</v>
       </c>
       <c r="F105">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5034,10 +5034,10 @@
         <v>4.5</v>
       </c>
       <c r="E106">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="F106">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5054,10 +5054,10 @@
         <v>1.7</v>
       </c>
       <c r="E107">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F107">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5074,10 +5074,10 @@
         <v>7.3</v>
       </c>
       <c r="E108">
-        <v>730</v>
+        <v>790</v>
       </c>
       <c r="F108">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5094,10 +5094,10 @@
         <v>5.0</v>
       </c>
       <c r="E109">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F109">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5114,10 +5114,10 @@
         <v>2.8</v>
       </c>
       <c r="E110">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F110">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5134,10 +5134,10 @@
         <v>4.0</v>
       </c>
       <c r="E111">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F111">
-        <v>4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5154,10 +5154,10 @@
         <v>2.8</v>
       </c>
       <c r="E112">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F112">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5174,10 +5174,10 @@
         <v>4.5</v>
       </c>
       <c r="E113">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="F113">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5194,10 +5194,10 @@
         <v>2.8</v>
       </c>
       <c r="E114">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F114">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5214,10 +5214,10 @@
         <v>3.4</v>
       </c>
       <c r="E115">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="F115">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5234,10 +5234,10 @@
         <v>6.7</v>
       </c>
       <c r="E116">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="F116">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5254,10 +5254,10 @@
         <v>1.7</v>
       </c>
       <c r="E117">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F117">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5274,10 +5274,10 @@
         <v>3.4</v>
       </c>
       <c r="E118">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="F118">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5294,10 +5294,10 @@
         <v>4.5</v>
       </c>
       <c r="E119">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="F119">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5314,10 +5314,10 @@
         <v>9.5</v>
       </c>
       <c r="E120">
-        <v>950</v>
+        <v>1030</v>
       </c>
       <c r="F120">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5334,10 +5334,10 @@
         <v>5.0</v>
       </c>
       <c r="E121">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F121">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5354,10 +5354,10 @@
         <v>4.0</v>
       </c>
       <c r="E122">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5374,10 +5374,10 @@
         <v>5.7</v>
       </c>
       <c r="E123">
-        <v>570</v>
+        <v>620</v>
       </c>
       <c r="F123">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5394,10 +5394,10 @@
         <v>6.2</v>
       </c>
       <c r="E124">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="F124">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5414,10 +5414,10 @@
         <v>30.4</v>
       </c>
       <c r="E125">
-        <v>3040</v>
+        <v>3290</v>
       </c>
       <c r="F125">
-        <v>30.4</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5434,10 +5434,10 @@
         <v>9.0</v>
       </c>
       <c r="E126">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="F126">
-        <v>9</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5479,10 +5479,10 @@
         <v>4.0</v>
       </c>
       <c r="E129">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F129">
-        <v>4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5499,10 +5499,10 @@
         <v>3.4</v>
       </c>
       <c r="E130">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="F130">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5519,10 +5519,10 @@
         <v>1.7</v>
       </c>
       <c r="E131">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F131">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5539,10 +5539,10 @@
         <v>1.7</v>
       </c>
       <c r="E132">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F132">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5559,10 +5559,10 @@
         <v>1.7</v>
       </c>
       <c r="E133">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F133">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5579,10 +5579,10 @@
         <v>1.7</v>
       </c>
       <c r="E134">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F134">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5599,10 +5599,10 @@
         <v>1.7</v>
       </c>
       <c r="E135">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F135">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5619,10 +5619,10 @@
         <v>1.7</v>
       </c>
       <c r="E136">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F136">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5639,10 +5639,10 @@
         <v>10.0</v>
       </c>
       <c r="E137">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5684,10 +5684,10 @@
         <v>1.7</v>
       </c>
       <c r="E140">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F140">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5704,10 +5704,10 @@
         <v>2.2</v>
       </c>
       <c r="E141">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F141">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5724,10 +5724,10 @@
         <v>2.8</v>
       </c>
       <c r="E142">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F142">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5744,10 +5744,10 @@
         <v>1.7</v>
       </c>
       <c r="E143">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F143">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5764,10 +5764,10 @@
         <v>2.2</v>
       </c>
       <c r="E144">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F144">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5784,10 +5784,10 @@
         <v>2.2</v>
       </c>
       <c r="E145">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F145">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5804,10 +5804,10 @@
         <v>2.8</v>
       </c>
       <c r="E146">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F146">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5824,10 +5824,10 @@
         <v>10.7</v>
       </c>
       <c r="E147">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F147">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5844,10 +5844,10 @@
         <v>5.9</v>
       </c>
       <c r="E148">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F148">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5864,10 +5864,10 @@
         <v>2.4</v>
       </c>
       <c r="E149">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F149">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5909,10 +5909,10 @@
         <v>2.8</v>
       </c>
       <c r="E152">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F152">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5929,10 +5929,10 @@
         <v>4.0</v>
       </c>
       <c r="E153">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F153">
-        <v>4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5949,10 +5949,10 @@
         <v>7.3</v>
       </c>
       <c r="E154">
-        <v>730</v>
+        <v>790</v>
       </c>
       <c r="F154">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5969,10 +5969,10 @@
         <v>8.5</v>
       </c>
       <c r="E155">
-        <v>850</v>
+        <v>920</v>
       </c>
       <c r="F155">
-        <v>8.5</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5989,10 +5989,10 @@
         <v>14.0</v>
       </c>
       <c r="E156">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="F156">
-        <v>14</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6034,10 +6034,10 @@
         <v>29.2</v>
       </c>
       <c r="E159">
-        <v>2920</v>
+        <v>3160</v>
       </c>
       <c r="F159">
-        <v>29.2</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6054,10 +6054,10 @@
         <v>25.9</v>
       </c>
       <c r="E160">
-        <v>2590</v>
+        <v>2800</v>
       </c>
       <c r="F160">
-        <v>25.9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6074,10 +6074,10 @@
         <v>23.6</v>
       </c>
       <c r="E161">
-        <v>2360</v>
+        <v>2550</v>
       </c>
       <c r="F161">
-        <v>23.6</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6094,10 +6094,10 @@
         <v>19.2</v>
       </c>
       <c r="E162">
-        <v>1920</v>
+        <v>2080</v>
       </c>
       <c r="F162">
-        <v>19.2</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6114,10 +6114,10 @@
         <v>19.2</v>
       </c>
       <c r="E163">
-        <v>1920</v>
+        <v>2080</v>
       </c>
       <c r="F163">
-        <v>19.2</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6134,10 +6134,10 @@
         <v>18.0</v>
       </c>
       <c r="E164">
-        <v>1800</v>
+        <v>1950</v>
       </c>
       <c r="F164">
-        <v>18</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -6154,10 +6154,10 @@
         <v>16.9</v>
       </c>
       <c r="E165">
-        <v>1690</v>
+        <v>1830</v>
       </c>
       <c r="F165">
-        <v>16.9</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -6174,10 +6174,10 @@
         <v>16.9</v>
       </c>
       <c r="E166">
-        <v>1690</v>
+        <v>1830</v>
       </c>
       <c r="F166">
-        <v>16.9</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -6194,10 +6194,10 @@
         <v>16.9</v>
       </c>
       <c r="E167">
-        <v>1690</v>
+        <v>1830</v>
       </c>
       <c r="F167">
-        <v>16.9</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6214,10 +6214,10 @@
         <v>15.7</v>
       </c>
       <c r="E168">
-        <v>1570</v>
+        <v>1700</v>
       </c>
       <c r="F168">
-        <v>15.7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -6234,10 +6234,10 @@
         <v>15.7</v>
       </c>
       <c r="E169">
-        <v>1570</v>
+        <v>1700</v>
       </c>
       <c r="F169">
-        <v>15.7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -6254,10 +6254,10 @@
         <v>15.7</v>
       </c>
       <c r="E170">
-        <v>1570</v>
+        <v>1700</v>
       </c>
       <c r="F170">
-        <v>15.7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -6274,10 +6274,10 @@
         <v>14.7</v>
       </c>
       <c r="E171">
-        <v>1470</v>
+        <v>1590</v>
       </c>
       <c r="F171">
-        <v>14.7</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -6294,10 +6294,10 @@
         <v>14.7</v>
       </c>
       <c r="E172">
-        <v>1470</v>
+        <v>1590</v>
       </c>
       <c r="F172">
-        <v>14.7</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -6339,10 +6339,10 @@
         <v>3.7</v>
       </c>
       <c r="E175">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F175">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -6359,10 +6359,10 @@
         <v>3.7</v>
       </c>
       <c r="E176">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F176">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -6379,10 +6379,10 @@
         <v>3.7</v>
       </c>
       <c r="E177">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F177">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6399,10 +6399,10 @@
         <v>3.7</v>
       </c>
       <c r="E178">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F178">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6419,10 +6419,10 @@
         <v>3.7</v>
       </c>
       <c r="E179">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F179">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -6464,10 +6464,10 @@
         <v>11.2</v>
       </c>
       <c r="E182">
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="F182">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -6484,10 +6484,10 @@
         <v>53.5</v>
       </c>
       <c r="E183">
-        <v>5350</v>
+        <v>5780</v>
       </c>
       <c r="F183">
-        <v>53.5</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -6529,10 +6529,10 @@
         <v>36.5</v>
       </c>
       <c r="E186">
-        <v>3650</v>
+        <v>3950</v>
       </c>
       <c r="F186">
-        <v>36.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -6549,10 +6549,10 @@
         <v>32.4</v>
       </c>
       <c r="E187">
-        <v>3240</v>
+        <v>3500</v>
       </c>
       <c r="F187">
-        <v>32.4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -6569,10 +6569,10 @@
         <v>29.5</v>
       </c>
       <c r="E188">
-        <v>2950</v>
+        <v>3190</v>
       </c>
       <c r="F188">
-        <v>29.5</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -6589,10 +6589,10 @@
         <v>24.0</v>
       </c>
       <c r="E189">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="F189">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -6609,10 +6609,10 @@
         <v>24.0</v>
       </c>
       <c r="E190">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="F190">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -6629,10 +6629,10 @@
         <v>22.5</v>
       </c>
       <c r="E191">
-        <v>2250</v>
+        <v>2440</v>
       </c>
       <c r="F191">
-        <v>22.5</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -6649,10 +6649,10 @@
         <v>21.2</v>
       </c>
       <c r="E192">
-        <v>2120</v>
+        <v>2290</v>
       </c>
       <c r="F192">
-        <v>21.2</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -6669,10 +6669,10 @@
         <v>21.2</v>
       </c>
       <c r="E193">
-        <v>2120</v>
+        <v>2290</v>
       </c>
       <c r="F193">
-        <v>21.2</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -6689,10 +6689,10 @@
         <v>21.2</v>
       </c>
       <c r="E194">
-        <v>2120</v>
+        <v>2290</v>
       </c>
       <c r="F194">
-        <v>21.2</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -6709,10 +6709,10 @@
         <v>19.6</v>
       </c>
       <c r="E195">
-        <v>1960</v>
+        <v>2120</v>
       </c>
       <c r="F195">
-        <v>19.6</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -6729,10 +6729,10 @@
         <v>19.6</v>
       </c>
       <c r="E196">
-        <v>1960</v>
+        <v>2120</v>
       </c>
       <c r="F196">
-        <v>19.6</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6749,10 +6749,10 @@
         <v>19.6</v>
       </c>
       <c r="E197">
-        <v>1960</v>
+        <v>2120</v>
       </c>
       <c r="F197">
-        <v>19.6</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6769,10 +6769,10 @@
         <v>18.4</v>
       </c>
       <c r="E198">
-        <v>1840</v>
+        <v>1990</v>
       </c>
       <c r="F198">
-        <v>18.4</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6789,10 +6789,10 @@
         <v>18.4</v>
       </c>
       <c r="E199">
-        <v>1840</v>
+        <v>1990</v>
       </c>
       <c r="F199">
-        <v>18.4</v>
+        <v>19.9</v>
       </c>
     </row>
   </sheetData>
@@ -6819,7 +6819,7 @@
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;CТерапевтическое лечение</oddHeader>
-    <oddFooter>&amp;L25.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
+    <oddFooter>&amp;L26.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -6898,10 +6898,10 @@
         <v>3.7</v>
       </c>
       <c r="E4">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F4">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6943,10 +6943,10 @@
         <v>14.3</v>
       </c>
       <c r="E7">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="F7">
-        <v>14.3</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6963,10 +6963,10 @@
         <v>2.4</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F8">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7008,10 +7008,10 @@
         <v>64.6</v>
       </c>
       <c r="E11">
-        <v>5500</v>
+        <v>5950</v>
       </c>
       <c r="F11">
-        <v>64.6</v>
+        <v>69.77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7028,10 +7028,10 @@
         <v>34.3</v>
       </c>
       <c r="E12">
-        <v>2800</v>
+        <v>3030</v>
       </c>
       <c r="F12">
-        <v>34.3</v>
+        <v>37.05</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7048,10 +7048,10 @@
         <v>5.4</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F13">
-        <v>5.4</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7068,10 +7068,10 @@
         <v>26.4</v>
       </c>
       <c r="E14">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="F14">
-        <v>26.4</v>
+        <v>28.52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7088,10 +7088,10 @@
         <v>8.0</v>
       </c>
       <c r="E15">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>8.64</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7108,10 +7108,10 @@
         <v>60.0</v>
       </c>
       <c r="E16">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="F16">
-        <v>60</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7153,10 +7153,10 @@
         <v>66.8</v>
       </c>
       <c r="E19">
-        <v>5300</v>
+        <v>5730</v>
       </c>
       <c r="F19">
-        <v>66.8</v>
+        <v>72.15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7173,10 +7173,10 @@
         <v>14.5</v>
       </c>
       <c r="E20">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F20">
-        <v>14.5</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7193,10 +7193,10 @@
         <v>72.4</v>
       </c>
       <c r="E21">
-        <v>5500</v>
+        <v>5950</v>
       </c>
       <c r="F21">
-        <v>72.4</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7213,10 +7213,10 @@
         <v>17.4</v>
       </c>
       <c r="E22">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F22">
-        <v>17.4</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7233,10 +7233,10 @@
         <v>7.9</v>
       </c>
       <c r="E23">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="F23">
-        <v>7.9</v>
+        <v>8.54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7253,10 +7253,10 @@
         <v>3.9</v>
       </c>
       <c r="E24">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F24">
-        <v>3.9</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7273,10 +7273,10 @@
         <v>7.0</v>
       </c>
       <c r="E25">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7293,10 +7293,10 @@
         <v>3.4</v>
       </c>
       <c r="E26">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F26">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7313,10 +7313,10 @@
         <v>3.4</v>
       </c>
       <c r="E27">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F27">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7358,10 +7358,10 @@
         <v>0.9</v>
       </c>
       <c r="E30">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F30">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7378,10 +7378,10 @@
         <v>19.1</v>
       </c>
       <c r="E31">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="F31">
-        <v>19.1</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7398,10 +7398,10 @@
         <v>0.8</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F32">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7418,10 +7418,10 @@
         <v>0.8</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F33">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7438,10 +7438,10 @@
         <v>4.4</v>
       </c>
       <c r="E34">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F34">
-        <v>4.4</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7483,10 +7483,10 @@
         <v>3.6</v>
       </c>
       <c r="E37">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F37">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7503,10 +7503,10 @@
         <v>9.0</v>
       </c>
       <c r="E38">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7523,10 +7523,10 @@
         <v>6.0</v>
       </c>
       <c r="E39">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7543,10 +7543,10 @@
         <v>40.8</v>
       </c>
       <c r="E40">
-        <v>3300</v>
+        <v>3570</v>
       </c>
       <c r="F40">
-        <v>40.8</v>
+        <v>44.07</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7563,10 +7563,10 @@
         <v>11.5</v>
       </c>
       <c r="E41">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F41">
-        <v>11.5</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7583,10 +7583,10 @@
         <v>6.9</v>
       </c>
       <c r="E42">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F42">
-        <v>6.9</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7603,10 +7603,10 @@
         <v>9.4</v>
       </c>
       <c r="E43">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="F43">
-        <v>9.4</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7623,10 +7623,10 @@
         <v>13.0</v>
       </c>
       <c r="E44">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7643,10 +7643,10 @@
         <v>3.6</v>
       </c>
       <c r="E45">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F45">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7663,10 +7663,10 @@
         <v>1.5</v>
       </c>
       <c r="E46">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F46">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7683,10 +7683,10 @@
         <v>3.6</v>
       </c>
       <c r="E47">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F47">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7703,10 +7703,10 @@
         <v>6.5</v>
       </c>
       <c r="E48">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F48">
-        <v>6.5</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7723,10 +7723,10 @@
         <v>3.6</v>
       </c>
       <c r="E49">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F49">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7743,10 +7743,10 @@
         <v>9.0</v>
       </c>
       <c r="E50">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F50">
-        <v>9</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7763,10 +7763,10 @@
         <v>10.1</v>
       </c>
       <c r="E51">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="F51">
-        <v>10.1</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7783,10 +7783,10 @@
         <v>6.5</v>
       </c>
       <c r="E52">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F52">
-        <v>6.5</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7803,10 +7803,10 @@
         <v>21.3</v>
       </c>
       <c r="E53">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="F53">
-        <v>21.3</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7823,10 +7823,10 @@
         <v>21.3</v>
       </c>
       <c r="E54">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="F54">
-        <v>21.3</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7843,10 +7843,10 @@
         <v>14.0</v>
       </c>
       <c r="E55">
-        <v>1100</v>
+        <v>1190</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>15.12</v>
       </c>
     </row>
   </sheetData>
@@ -7865,7 +7865,7 @@
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;CПрейскурант на лечение врача Корчемного В.М.</oddHeader>
-    <oddFooter>&amp;L25.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
+    <oddFooter>&amp;L26.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -7944,10 +7944,10 @@
         <v>70.0</v>
       </c>
       <c r="E4">
-        <v>8000</v>
+        <v>8650</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>75.61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7964,10 +7964,10 @@
         <v>20.0</v>
       </c>
       <c r="E5">
-        <v>2000</v>
+        <v>2170</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7984,10 +7984,10 @@
         <v>20.0</v>
       </c>
       <c r="E6">
-        <v>2000</v>
+        <v>2170</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8029,10 +8029,10 @@
         <v>680.0</v>
       </c>
       <c r="E9">
-        <v>68000</v>
+        <v>73450</v>
       </c>
       <c r="F9">
-        <v>680</v>
+        <v>734.5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8049,10 +8049,10 @@
         <v>230.0</v>
       </c>
       <c r="E10">
-        <v>23000</v>
+        <v>24850</v>
       </c>
       <c r="F10">
-        <v>230</v>
+        <v>248.5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8069,10 +8069,10 @@
         <v>380.0</v>
       </c>
       <c r="E11">
-        <v>38000</v>
+        <v>41050</v>
       </c>
       <c r="F11">
-        <v>380</v>
+        <v>410.5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8089,10 +8089,10 @@
         <v>530.0</v>
       </c>
       <c r="E12">
-        <v>53000</v>
+        <v>57250</v>
       </c>
       <c r="F12">
-        <v>530</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8109,10 +8109,10 @@
         <v>980.0</v>
       </c>
       <c r="E13">
-        <v>98000</v>
+        <v>105850</v>
       </c>
       <c r="F13">
-        <v>980</v>
+        <v>1058.5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8129,10 +8129,10 @@
         <v>780.0</v>
       </c>
       <c r="E14">
-        <v>83000</v>
+        <v>89650</v>
       </c>
       <c r="F14">
-        <v>780</v>
+        <v>842.4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8174,10 +8174,10 @@
         <v>80.0</v>
       </c>
       <c r="E17">
-        <v>8000</v>
+        <v>8650</v>
       </c>
       <c r="F17">
-        <v>80</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8194,10 +8194,10 @@
         <v>150.0</v>
       </c>
       <c r="E18">
-        <v>15000</v>
+        <v>16210</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>162.1</v>
       </c>
     </row>
   </sheetData>
@@ -8213,7 +8213,7 @@
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;CЦифровая ортодонтия</oddHeader>
-    <oddFooter>&amp;L25.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
+    <oddFooter>&amp;L26.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -8289,7 +8289,7 @@
         <v>109</v>
       </c>
       <c r="E4">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>111</v>
       </c>
       <c r="E5">
-        <v>5000</v>
+        <v>5410</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8323,7 +8323,7 @@
         <v>113</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>10810</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8340,7 +8340,7 @@
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;CПодарочные сертификаты</oddHeader>
-    <oddFooter>&amp;L25.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
+    <oddFooter>&amp;L26.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -8416,7 +8416,7 @@
         <v>54</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>118</v>
       </c>
       <c r="E5">
-        <v>850</v>
+        <v>920</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>120</v>
       </c>
       <c r="E6">
-        <v>880</v>
+        <v>960</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>118</v>
       </c>
       <c r="E7">
-        <v>850</v>
+        <v>920</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>123</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8501,7 +8501,7 @@
         <v>54</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>45</v>
       </c>
       <c r="E10">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>45</v>
       </c>
       <c r="E11">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>128</v>
       </c>
       <c r="E12">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -8569,7 +8569,7 @@
         <v>123</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>128</v>
       </c>
       <c r="E14">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -8603,7 +8603,7 @@
         <v>128</v>
       </c>
       <c r="E15">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>128</v>
       </c>
       <c r="E16">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -8637,7 +8637,7 @@
         <v>105</v>
       </c>
       <c r="E17">
-        <v>15000</v>
+        <v>16210</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -8654,7 +8654,7 @@
         <v>135</v>
       </c>
       <c r="E18">
-        <v>21000</v>
+        <v>22690</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -8671,7 +8671,7 @@
         <v>118</v>
       </c>
       <c r="E19">
-        <v>850</v>
+        <v>920</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -8688,7 +8688,7 @@
         <v>138</v>
       </c>
       <c r="E20">
-        <v>28000</v>
+        <v>30250</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>128</v>
       </c>
       <c r="E21">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -8747,7 +8747,7 @@
         <v>142</v>
       </c>
       <c r="E24">
-        <v>4750</v>
+        <v>5140</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>144</v>
       </c>
       <c r="E25">
-        <v>6000</v>
+        <v>6490</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>30</v>
       </c>
       <c r="E26">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>147</v>
       </c>
       <c r="E27">
-        <v>13000</v>
+        <v>14050</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -8815,7 +8815,7 @@
         <v>149</v>
       </c>
       <c r="E28">
-        <v>5600</v>
+        <v>6050</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -8857,7 +8857,7 @@
         <v>152</v>
       </c>
       <c r="E31">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -8874,7 +8874,7 @@
         <v>152</v>
       </c>
       <c r="E32">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -8891,7 +8891,7 @@
         <v>72</v>
       </c>
       <c r="E33">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -8908,7 +8908,7 @@
         <v>156</v>
       </c>
       <c r="E34">
-        <v>2700</v>
+        <v>2920</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -8925,7 +8925,7 @@
         <v>87</v>
       </c>
       <c r="E35">
-        <v>2000</v>
+        <v>2170</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>159</v>
       </c>
       <c r="E36">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -8959,7 +8959,7 @@
         <v>63</v>
       </c>
       <c r="E37">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>159</v>
       </c>
       <c r="E38">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -8993,7 +8993,7 @@
         <v>159</v>
       </c>
       <c r="E39">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>21</v>
       </c>
       <c r="E40">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -9044,7 +9044,7 @@
         <v>21</v>
       </c>
       <c r="E42">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>152</v>
       </c>
       <c r="E43">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -9078,7 +9078,7 @@
         <v>123</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>57</v>
       </c>
       <c r="E45">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>54</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -9129,7 +9129,7 @@
         <v>47</v>
       </c>
       <c r="E47">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -9146,7 +9146,7 @@
         <v>47</v>
       </c>
       <c r="E48">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>57</v>
       </c>
       <c r="E49">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>37</v>
       </c>
       <c r="E50">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>47</v>
       </c>
       <c r="E53">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>54</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -9281,7 +9281,7 @@
         <v>179</v>
       </c>
       <c r="E57">
-        <v>1650</v>
+        <v>1790</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>181</v>
       </c>
       <c r="E58">
-        <v>44000</v>
+        <v>47530</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -9315,7 +9315,7 @@
         <v>183</v>
       </c>
       <c r="E59">
-        <v>52000</v>
+        <v>56170</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>185</v>
       </c>
       <c r="E60">
-        <v>1250</v>
+        <v>1360</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -9349,7 +9349,7 @@
         <v>42</v>
       </c>
       <c r="E61">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -9366,7 +9366,7 @@
         <v>185</v>
       </c>
       <c r="E62">
-        <v>1250</v>
+        <v>1360</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -9383,7 +9383,7 @@
         <v>30</v>
       </c>
       <c r="E63">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>190</v>
       </c>
       <c r="E64">
-        <v>2850</v>
+        <v>3080</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>192</v>
       </c>
       <c r="E65">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>37</v>
       </c>
       <c r="E66">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>195</v>
       </c>
       <c r="E67">
-        <v>1300</v>
+        <v>1410</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -9468,7 +9468,7 @@
         <v>37</v>
       </c>
       <c r="E68">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>47</v>
       </c>
       <c r="E69">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>47</v>
       </c>
       <c r="E70">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9519,7 +9519,7 @@
         <v>47</v>
       </c>
       <c r="E71">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>195</v>
       </c>
       <c r="E72">
-        <v>1300</v>
+        <v>1410</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9553,7 +9553,7 @@
         <v>61</v>
       </c>
       <c r="E73">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9570,7 +9570,7 @@
         <v>203</v>
       </c>
       <c r="E74">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9587,7 +9587,7 @@
         <v>203</v>
       </c>
       <c r="E75">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -9604,7 +9604,7 @@
         <v>72</v>
       </c>
       <c r="E76">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -9621,7 +9621,7 @@
         <v>152</v>
       </c>
       <c r="E77">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>208</v>
       </c>
       <c r="E78">
-        <v>55000</v>
+        <v>59410</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>190</v>
       </c>
       <c r="E79">
-        <v>2850</v>
+        <v>3080</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -9672,7 +9672,7 @@
         <v>211</v>
       </c>
       <c r="E80">
-        <v>1800</v>
+        <v>1950</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -9689,7 +9689,7 @@
         <v>213</v>
       </c>
       <c r="E81">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>215</v>
       </c>
       <c r="E82">
-        <v>2500</v>
+        <v>2710</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>30</v>
       </c>
       <c r="E85">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>192</v>
       </c>
       <c r="E86">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -9782,7 +9782,7 @@
         <v>37</v>
       </c>
       <c r="E87">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>24</v>
       </c>
       <c r="E88">
-        <v>5500</v>
+        <v>5950</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>222</v>
       </c>
       <c r="E89">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>224</v>
       </c>
       <c r="E90">
-        <v>11000</v>
+        <v>11890</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -9850,7 +9850,7 @@
         <v>226</v>
       </c>
       <c r="E91">
-        <v>6500</v>
+        <v>7030</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -9867,7 +9867,7 @@
         <v>211</v>
       </c>
       <c r="E92">
-        <v>1800</v>
+        <v>1950</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>229</v>
       </c>
       <c r="E93">
-        <v>8600</v>
+        <v>9290</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>224</v>
       </c>
       <c r="E94">
-        <v>11000</v>
+        <v>11890</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>109</v>
       </c>
       <c r="E95">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -9935,7 +9935,7 @@
         <v>195</v>
       </c>
       <c r="E96">
-        <v>1300</v>
+        <v>1410</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>234</v>
       </c>
       <c r="E97">
-        <v>4700</v>
+        <v>5080</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>236</v>
       </c>
       <c r="E98">
-        <v>2600</v>
+        <v>2810</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -9986,7 +9986,7 @@
         <v>238</v>
       </c>
       <c r="E99">
-        <v>7200</v>
+        <v>7780</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -10028,7 +10028,7 @@
         <v>241</v>
       </c>
       <c r="E102">
-        <v>630</v>
+        <v>690</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>24</v>
       </c>
       <c r="E105">
-        <v>5500</v>
+        <v>5950</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -10087,7 +10087,7 @@
         <v>82</v>
       </c>
       <c r="E106">
-        <v>1100</v>
+        <v>1190</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -10104,7 +10104,7 @@
         <v>226</v>
       </c>
       <c r="E107">
-        <v>6500</v>
+        <v>7030</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>24</v>
       </c>
       <c r="E108">
-        <v>5500</v>
+        <v>5950</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>111</v>
       </c>
       <c r="E109">
-        <v>5000</v>
+        <v>5410</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -10155,7 +10155,7 @@
         <v>142</v>
       </c>
       <c r="E110">
-        <v>4750</v>
+        <v>5140</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -10172,7 +10172,7 @@
         <v>250</v>
       </c>
       <c r="E111">
-        <v>2250</v>
+        <v>2440</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -10189,7 +10189,7 @@
         <v>252</v>
       </c>
       <c r="E112">
-        <v>6850</v>
+        <v>7400</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>254</v>
       </c>
       <c r="E113">
-        <v>5800</v>
+        <v>6270</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -10223,7 +10223,7 @@
         <v>85</v>
       </c>
       <c r="E114">
-        <v>8000</v>
+        <v>8650</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -10240,7 +10240,7 @@
         <v>257</v>
       </c>
       <c r="E115">
-        <v>12000</v>
+        <v>12970</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -10257,7 +10257,7 @@
         <v>259</v>
       </c>
       <c r="E116">
-        <v>3800</v>
+        <v>4110</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -10274,7 +10274,7 @@
         <v>65</v>
       </c>
       <c r="E117">
-        <v>3300</v>
+        <v>3570</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -10291,7 +10291,7 @@
         <v>262</v>
       </c>
       <c r="E118">
-        <v>3200</v>
+        <v>3460</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -10308,7 +10308,7 @@
         <v>24</v>
       </c>
       <c r="E119">
-        <v>5500</v>
+        <v>5950</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -10325,7 +10325,7 @@
         <v>37</v>
       </c>
       <c r="E120">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -10342,7 +10342,7 @@
         <v>254</v>
       </c>
       <c r="E121">
-        <v>5800</v>
+        <v>6270</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -10359,7 +10359,7 @@
         <v>267</v>
       </c>
       <c r="E122">
-        <v>750</v>
+        <v>820</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -10376,7 +10376,7 @@
         <v>254</v>
       </c>
       <c r="E123">
-        <v>5800</v>
+        <v>6270</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>270</v>
       </c>
       <c r="E124">
-        <v>4000</v>
+        <v>4330</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -10410,7 +10410,7 @@
         <v>37</v>
       </c>
       <c r="E125">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>195</v>
       </c>
       <c r="E126">
-        <v>1300</v>
+        <v>1410</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -10469,7 +10469,7 @@
         <v>267</v>
       </c>
       <c r="E129">
-        <v>750</v>
+        <v>820</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -10486,7 +10486,7 @@
         <v>123</v>
       </c>
       <c r="E130">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>267</v>
       </c>
       <c r="E131">
-        <v>750</v>
+        <v>820</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -10545,7 +10545,7 @@
         <v>279</v>
       </c>
       <c r="E134">
-        <v>6200</v>
+        <v>6700</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -10562,7 +10562,7 @@
         <v>281</v>
       </c>
       <c r="E135">
-        <v>9000</v>
+        <v>9730</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>281</v>
       </c>
       <c r="E138">
-        <v>9000</v>
+        <v>9730</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -10621,7 +10621,7 @@
         <v>113</v>
       </c>
       <c r="E139">
-        <v>10000</v>
+        <v>10810</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -10638,7 +10638,7 @@
         <v>257</v>
       </c>
       <c r="E140">
-        <v>12000</v>
+        <v>12970</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>159</v>
       </c>
       <c r="E143">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>57</v>
       </c>
       <c r="E144">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -10714,7 +10714,7 @@
         <v>290</v>
       </c>
       <c r="E145">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>293</v>
       </c>
       <c r="E148">
-        <v>5700</v>
+        <v>6160</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>111</v>
       </c>
       <c r="E149">
-        <v>5000</v>
+        <v>5410</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>28</v>
       </c>
       <c r="E150">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -10807,7 +10807,7 @@
         <v>159</v>
       </c>
       <c r="E151">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>299</v>
       </c>
       <c r="E154">
-        <v>3500</v>
+        <v>3790</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -10866,7 +10866,7 @@
         <v>270</v>
       </c>
       <c r="E155">
-        <v>4000</v>
+        <v>4330</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>91</v>
       </c>
       <c r="E158">
-        <v>68000</v>
+        <v>73450</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>93</v>
       </c>
       <c r="E159">
-        <v>23000</v>
+        <v>24850</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>95</v>
       </c>
       <c r="E160">
-        <v>38000</v>
+        <v>41050</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>97</v>
       </c>
       <c r="E161">
-        <v>53000</v>
+        <v>57250</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -10976,7 +10976,7 @@
         <v>99</v>
       </c>
       <c r="E162">
-        <v>98000</v>
+        <v>105850</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>101</v>
       </c>
       <c r="E163">
-        <v>83000</v>
+        <v>89650</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -11035,7 +11035,7 @@
         <v>309</v>
       </c>
       <c r="E166">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>311</v>
       </c>
       <c r="E167">
-        <v>2200</v>
+        <v>2380</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>313</v>
       </c>
       <c r="E168">
-        <v>1700</v>
+        <v>1840</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>315</v>
       </c>
       <c r="E169">
-        <v>4500</v>
+        <v>4870</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -11103,7 +11103,7 @@
         <v>226</v>
       </c>
       <c r="E170">
-        <v>6500</v>
+        <v>7030</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>215</v>
       </c>
       <c r="E173">
-        <v>2500</v>
+        <v>2710</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>215</v>
       </c>
       <c r="E174">
-        <v>2500</v>
+        <v>2710</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -11204,7 +11204,7 @@
         <v>37</v>
       </c>
       <c r="E177">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -11221,7 +11221,7 @@
         <v>82</v>
       </c>
       <c r="E178">
-        <v>1100</v>
+        <v>1190</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -11263,7 +11263,7 @@
         <v>24</v>
       </c>
       <c r="E181">
-        <v>5500</v>
+        <v>5950</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>224</v>
       </c>
       <c r="E184">
-        <v>11000</v>
+        <v>11890</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -11322,7 +11322,7 @@
         <v>147</v>
       </c>
       <c r="E185">
-        <v>13000</v>
+        <v>14050</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -11339,7 +11339,7 @@
         <v>329</v>
       </c>
       <c r="E186">
-        <v>19000</v>
+        <v>20530</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -11375,7 +11375,7 @@
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;CМатериалы</oddHeader>
-    <oddFooter>&amp;L25.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
+    <oddFooter>&amp;L26.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -11454,10 +11454,10 @@
         <v>10.7</v>
       </c>
       <c r="E4">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F4">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11474,10 +11474,10 @@
         <v>5.9</v>
       </c>
       <c r="E5">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F5">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11494,10 +11494,10 @@
         <v>1.7</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F6">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11514,10 +11514,10 @@
         <v>2.7</v>
       </c>
       <c r="E7">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="F7">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11534,10 +11534,10 @@
         <v>2.4</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F8">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11579,10 +11579,10 @@
         <v>3.7</v>
       </c>
       <c r="E11">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F11">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -11624,10 +11624,10 @@
         <v>7.9</v>
       </c>
       <c r="E14">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="F14">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -11644,10 +11644,10 @@
         <v>45.0</v>
       </c>
       <c r="E15">
-        <v>4500</v>
+        <v>4870</v>
       </c>
       <c r="F15">
-        <v>45</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -11664,10 +11664,10 @@
         <v>12.9</v>
       </c>
       <c r="E16">
-        <v>1290</v>
+        <v>1400</v>
       </c>
       <c r="F16">
-        <v>12.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -11684,10 +11684,10 @@
         <v>6.7</v>
       </c>
       <c r="E17">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="F17">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -11704,10 +11704,10 @@
         <v>6.7</v>
       </c>
       <c r="E18">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="F18">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -11724,10 +11724,10 @@
         <v>4.0</v>
       </c>
       <c r="E19">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -11744,10 +11744,10 @@
         <v>60.0</v>
       </c>
       <c r="E20">
-        <v>6000</v>
+        <v>6490</v>
       </c>
       <c r="F20">
-        <v>60</v>
+        <v>64.9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -11789,10 +11789,10 @@
         <v>65.2</v>
       </c>
       <c r="E23">
-        <v>6520</v>
+        <v>7050</v>
       </c>
       <c r="F23">
-        <v>65.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -11809,10 +11809,10 @@
         <v>20.2</v>
       </c>
       <c r="E24">
-        <v>2020</v>
+        <v>2190</v>
       </c>
       <c r="F24">
-        <v>20.2</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11829,10 +11829,10 @@
         <v>44.9</v>
       </c>
       <c r="E25">
-        <v>4490</v>
+        <v>4850</v>
       </c>
       <c r="F25">
-        <v>44.9</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11849,10 +11849,10 @@
         <v>10.4</v>
       </c>
       <c r="E26">
-        <v>1040</v>
+        <v>1130</v>
       </c>
       <c r="F26">
-        <v>10.4</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -11869,10 +11869,10 @@
         <v>12.9</v>
       </c>
       <c r="E27">
-        <v>1290</v>
+        <v>1400</v>
       </c>
       <c r="F27">
-        <v>12.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -11914,10 +11914,10 @@
         <v>2.2</v>
       </c>
       <c r="E30">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F30">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -11934,10 +11934,10 @@
         <v>4.0</v>
       </c>
       <c r="E31">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -11954,10 +11954,10 @@
         <v>11.2</v>
       </c>
       <c r="E32">
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="F32">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -11999,10 +11999,10 @@
         <v>30.4</v>
       </c>
       <c r="E35">
-        <v>3040</v>
+        <v>3290</v>
       </c>
       <c r="F35">
-        <v>30.4</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -12019,10 +12019,10 @@
         <v>20.2</v>
       </c>
       <c r="E36">
-        <v>2020</v>
+        <v>2190</v>
       </c>
       <c r="F36">
-        <v>20.2</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -12039,10 +12039,10 @@
         <v>19.7</v>
       </c>
       <c r="E37">
-        <v>1970</v>
+        <v>2130</v>
       </c>
       <c r="F37">
-        <v>19.7</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -12059,10 +12059,10 @@
         <v>12.9</v>
       </c>
       <c r="E38">
-        <v>1290</v>
+        <v>1400</v>
       </c>
       <c r="F38">
-        <v>12.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -12079,10 +12079,10 @@
         <v>35.0</v>
       </c>
       <c r="E39">
-        <v>3500</v>
+        <v>3790</v>
       </c>
       <c r="F39">
-        <v>35</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -12099,10 +12099,10 @@
         <v>39.4</v>
       </c>
       <c r="E40">
-        <v>3940</v>
+        <v>4260</v>
       </c>
       <c r="F40">
-        <v>39.4</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -12119,10 +12119,10 @@
         <v>19.7</v>
       </c>
       <c r="E41">
-        <v>1970</v>
+        <v>2130</v>
       </c>
       <c r="F41">
-        <v>19.7</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -12139,10 +12139,10 @@
         <v>13.5</v>
       </c>
       <c r="E42">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="F42">
-        <v>13.5</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -12159,10 +12159,10 @@
         <v>32.6</v>
       </c>
       <c r="E43">
-        <v>3260</v>
+        <v>3530</v>
       </c>
       <c r="F43">
-        <v>32.6</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -12179,10 +12179,10 @@
         <v>35.4</v>
       </c>
       <c r="E44">
-        <v>3540</v>
+        <v>3830</v>
       </c>
       <c r="F44">
-        <v>35.4</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -12199,10 +12199,10 @@
         <v>64.2</v>
       </c>
       <c r="E45">
-        <v>6420</v>
+        <v>6940</v>
       </c>
       <c r="F45">
-        <v>64.2</v>
+        <v>69.4</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -12244,10 +12244,10 @@
         <v>2.8</v>
       </c>
       <c r="E48">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F48">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -12264,10 +12264,10 @@
         <v>6.7</v>
       </c>
       <c r="E49">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="F49">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -12284,10 +12284,10 @@
         <v>1.7</v>
       </c>
       <c r="E50">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F50">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -12304,10 +12304,10 @@
         <v>10.2</v>
       </c>
       <c r="E51">
-        <v>1020</v>
+        <v>1110</v>
       </c>
       <c r="F51">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -12324,10 +12324,10 @@
         <v>1.7</v>
       </c>
       <c r="E52">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F52">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -12344,10 +12344,10 @@
         <v>12.9</v>
       </c>
       <c r="E53">
-        <v>1290</v>
+        <v>1400</v>
       </c>
       <c r="F53">
-        <v>12.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -12364,10 +12364,10 @@
         <v>6.7</v>
       </c>
       <c r="E54">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="F54">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -12434,10 +12434,10 @@
         <v>129.8</v>
       </c>
       <c r="E59">
-        <v>12980</v>
+        <v>14020</v>
       </c>
       <c r="F59">
-        <v>129.8</v>
+        <v>140.2</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -12454,10 +12454,10 @@
         <v>129.8</v>
       </c>
       <c r="E60">
-        <v>12980</v>
+        <v>14020</v>
       </c>
       <c r="F60">
-        <v>129.8</v>
+        <v>140.2</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -12474,10 +12474,10 @@
         <v>51.7</v>
       </c>
       <c r="E61">
-        <v>5170</v>
+        <v>5590</v>
       </c>
       <c r="F61">
-        <v>51.7</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -12494,10 +12494,10 @@
         <v>78.6</v>
       </c>
       <c r="E62">
-        <v>7860</v>
+        <v>8490</v>
       </c>
       <c r="F62">
-        <v>78.6</v>
+        <v>84.9</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -12514,10 +12514,10 @@
         <v>224.7</v>
       </c>
       <c r="E63">
-        <v>22470</v>
+        <v>24270</v>
       </c>
       <c r="F63">
-        <v>224.7</v>
+        <v>242.7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -12534,10 +12534,10 @@
         <v>123.6</v>
       </c>
       <c r="E64">
-        <v>12360</v>
+        <v>13350</v>
       </c>
       <c r="F64">
-        <v>123.6</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -12554,10 +12554,10 @@
         <v>25.9</v>
       </c>
       <c r="E65">
-        <v>2590</v>
+        <v>2800</v>
       </c>
       <c r="F65">
-        <v>25.9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -12574,10 +12574,10 @@
         <v>25.9</v>
       </c>
       <c r="E66">
-        <v>2590</v>
+        <v>2800</v>
       </c>
       <c r="F66">
-        <v>25.9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -12594,10 +12594,10 @@
         <v>118.0</v>
       </c>
       <c r="E67">
-        <v>11800</v>
+        <v>12750</v>
       </c>
       <c r="F67">
-        <v>118</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -12614,10 +12614,10 @@
         <v>39.4</v>
       </c>
       <c r="E68">
-        <v>3940</v>
+        <v>4260</v>
       </c>
       <c r="F68">
-        <v>39.4</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -12634,10 +12634,10 @@
         <v>13.1</v>
       </c>
       <c r="E69">
-        <v>1310</v>
+        <v>1420</v>
       </c>
       <c r="F69">
-        <v>13.1</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -12654,10 +12654,10 @@
         <v>65.2</v>
       </c>
       <c r="E70">
-        <v>6520</v>
+        <v>7050</v>
       </c>
       <c r="F70">
-        <v>65.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -12674,10 +12674,10 @@
         <v>224.7</v>
       </c>
       <c r="E71">
-        <v>22470</v>
+        <v>24270</v>
       </c>
       <c r="F71">
-        <v>224.7</v>
+        <v>242.7</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -12694,10 +12694,10 @@
         <v>118.0</v>
       </c>
       <c r="E72">
-        <v>11800</v>
+        <v>12750</v>
       </c>
       <c r="F72">
-        <v>118</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -12714,10 +12714,10 @@
         <v>33.7</v>
       </c>
       <c r="E73">
-        <v>3370</v>
+        <v>3640</v>
       </c>
       <c r="F73">
-        <v>33.7</v>
+        <v>36.4</v>
       </c>
     </row>
   </sheetData>
@@ -12739,7 +12739,7 @@
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;CХирургическое лечение</oddHeader>
-    <oddFooter>&amp;L25.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
+    <oddFooter>&amp;L26.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -12818,10 +12818,10 @@
         <v>2.8</v>
       </c>
       <c r="E4">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F4">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -12838,10 +12838,10 @@
         <v>2.2</v>
       </c>
       <c r="E5">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F5">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12883,10 +12883,10 @@
         <v>3.4</v>
       </c>
       <c r="E8">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="F8">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
@@ -12901,7 +12901,7 @@
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;CРентген</oddHeader>
-    <oddFooter>&amp;L25.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
+    <oddFooter>&amp;L26.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -12980,10 +12980,10 @@
         <v>17.7</v>
       </c>
       <c r="E4">
-        <v>1770</v>
+        <v>1920</v>
       </c>
       <c r="F4">
-        <v>17.7</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -13000,10 +13000,10 @@
         <v>2.1</v>
       </c>
       <c r="E5">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F5">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -13020,10 +13020,10 @@
         <v>17.7</v>
       </c>
       <c r="E6">
-        <v>1770</v>
+        <v>1920</v>
       </c>
       <c r="F6">
-        <v>17.7</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -13040,10 +13040,10 @@
         <v>53.5</v>
       </c>
       <c r="E7">
-        <v>5350</v>
+        <v>5780</v>
       </c>
       <c r="F7">
-        <v>53.5</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -13060,10 +13060,10 @@
         <v>21.4</v>
       </c>
       <c r="E8">
-        <v>2140</v>
+        <v>2320</v>
       </c>
       <c r="F8">
-        <v>21.4</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -13080,10 +13080,10 @@
         <v>6.4</v>
       </c>
       <c r="E9">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="F9">
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -13100,10 +13100,10 @@
         <v>3.2</v>
       </c>
       <c r="E10">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="F10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -13120,10 +13120,10 @@
         <v>12.8</v>
       </c>
       <c r="E11">
-        <v>1280</v>
+        <v>1390</v>
       </c>
       <c r="F11">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -13140,10 +13140,10 @@
         <v>7.0</v>
       </c>
       <c r="E12">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -13160,10 +13160,10 @@
         <v>6.4</v>
       </c>
       <c r="E13">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="F13">
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -13180,10 +13180,10 @@
         <v>3.7</v>
       </c>
       <c r="E14">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F14">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -13225,10 +13225,10 @@
         <v>240.8</v>
       </c>
       <c r="E17">
-        <v>24080</v>
+        <v>26010</v>
       </c>
       <c r="F17">
-        <v>240.8</v>
+        <v>260.1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -13245,10 +13245,10 @@
         <v>1.2</v>
       </c>
       <c r="E18">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F18">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -13265,10 +13265,10 @@
         <v>16.1</v>
       </c>
       <c r="E19">
-        <v>1610</v>
+        <v>1740</v>
       </c>
       <c r="F19">
-        <v>16.1</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -13285,10 +13285,10 @@
         <v>9.1</v>
       </c>
       <c r="E20">
-        <v>910</v>
+        <v>990</v>
       </c>
       <c r="F20">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -13305,10 +13305,10 @@
         <v>500.0</v>
       </c>
       <c r="E21">
-        <v>50000</v>
+        <v>54010</v>
       </c>
       <c r="F21">
-        <v>500</v>
+        <v>540.1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -13325,10 +13325,10 @@
         <v>406.6</v>
       </c>
       <c r="E22">
-        <v>40660</v>
+        <v>43920</v>
       </c>
       <c r="F22">
-        <v>406.6</v>
+        <v>439.2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -13345,10 +13345,10 @@
         <v>37.5</v>
       </c>
       <c r="E23">
-        <v>3750</v>
+        <v>4060</v>
       </c>
       <c r="F23">
-        <v>37.5</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -13365,10 +13365,10 @@
         <v>2.1</v>
       </c>
       <c r="E24">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F24">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -13385,10 +13385,10 @@
         <v>4.3</v>
       </c>
       <c r="E25">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="F25">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -13405,10 +13405,10 @@
         <v>6.4</v>
       </c>
       <c r="E26">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="F26">
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -13425,10 +13425,10 @@
         <v>10.7</v>
       </c>
       <c r="E27">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F27">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -13445,10 +13445,10 @@
         <v>4.3</v>
       </c>
       <c r="E28">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="F28">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -13465,10 +13465,10 @@
         <v>8.6</v>
       </c>
       <c r="E29">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="F29">
-        <v>8.6</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -13485,10 +13485,10 @@
         <v>64.2</v>
       </c>
       <c r="E30">
-        <v>6420</v>
+        <v>6940</v>
       </c>
       <c r="F30">
-        <v>64.2</v>
+        <v>69.4</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -13505,10 +13505,10 @@
         <v>48.2</v>
       </c>
       <c r="E31">
-        <v>4820</v>
+        <v>5210</v>
       </c>
       <c r="F31">
-        <v>48.2</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -13525,10 +13525,10 @@
         <v>64.2</v>
       </c>
       <c r="E32">
-        <v>6420</v>
+        <v>6940</v>
       </c>
       <c r="F32">
-        <v>64.2</v>
+        <v>69.4</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -13545,10 +13545,10 @@
         <v>4.8</v>
       </c>
       <c r="E33">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="F33">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -13565,10 +13565,10 @@
         <v>42.8</v>
       </c>
       <c r="E34">
-        <v>4280</v>
+        <v>4630</v>
       </c>
       <c r="F34">
-        <v>42.8</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -13585,10 +13585,10 @@
         <v>64.2</v>
       </c>
       <c r="E35">
-        <v>6420</v>
+        <v>6940</v>
       </c>
       <c r="F35">
-        <v>64.2</v>
+        <v>69.4</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -13605,10 +13605,10 @@
         <v>62.1</v>
       </c>
       <c r="E36">
-        <v>6210</v>
+        <v>6710</v>
       </c>
       <c r="F36">
-        <v>62.1</v>
+        <v>67.1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -13625,10 +13625,10 @@
         <v>75.0</v>
       </c>
       <c r="E37">
-        <v>7500</v>
+        <v>8110</v>
       </c>
       <c r="F37">
-        <v>75</v>
+        <v>81.1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -13645,10 +13645,10 @@
         <v>9.4</v>
       </c>
       <c r="E38">
-        <v>940</v>
+        <v>1020</v>
       </c>
       <c r="F38">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -13665,10 +13665,10 @@
         <v>5.9</v>
       </c>
       <c r="E39">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F39">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -13685,10 +13685,10 @@
         <v>1.6</v>
       </c>
       <c r="E40">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="F40">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -13705,10 +13705,10 @@
         <v>3.7</v>
       </c>
       <c r="E41">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F41">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -13725,10 +13725,10 @@
         <v>149.8</v>
       </c>
       <c r="E42">
-        <v>14980</v>
+        <v>16180</v>
       </c>
       <c r="F42">
-        <v>149.8</v>
+        <v>161.8</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -13745,10 +13745,10 @@
         <v>112.4</v>
       </c>
       <c r="E43">
-        <v>11240</v>
+        <v>12140</v>
       </c>
       <c r="F43">
-        <v>112.4</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -13765,10 +13765,10 @@
         <v>150.0</v>
       </c>
       <c r="E44">
-        <v>15000</v>
+        <v>16210</v>
       </c>
       <c r="F44">
-        <v>150</v>
+        <v>162.1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -13785,10 +13785,10 @@
         <v>200.0</v>
       </c>
       <c r="E45">
-        <v>20000</v>
+        <v>21610</v>
       </c>
       <c r="F45">
-        <v>200</v>
+        <v>216.1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -13805,10 +13805,10 @@
         <v>171.2</v>
       </c>
       <c r="E46">
-        <v>17120</v>
+        <v>18490</v>
       </c>
       <c r="F46">
-        <v>171.2</v>
+        <v>184.9</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -13825,10 +13825,10 @@
         <v>17.1</v>
       </c>
       <c r="E47">
-        <v>1710</v>
+        <v>1850</v>
       </c>
       <c r="F47">
-        <v>17.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -13845,10 +13845,10 @@
         <v>10.7</v>
       </c>
       <c r="E48">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F48">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -13865,10 +13865,10 @@
         <v>500.0</v>
       </c>
       <c r="E49">
-        <v>50000</v>
+        <v>54010</v>
       </c>
       <c r="F49">
-        <v>500</v>
+        <v>540.1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -13885,10 +13885,10 @@
         <v>50.0</v>
       </c>
       <c r="E50">
-        <v>5000</v>
+        <v>5410</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -13905,10 +13905,10 @@
         <v>250.0</v>
       </c>
       <c r="E51">
-        <v>25000</v>
+        <v>27010</v>
       </c>
       <c r="F51">
-        <v>250</v>
+        <v>270.1</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -13925,10 +13925,10 @@
         <v>180.0</v>
       </c>
       <c r="E52">
-        <v>18000</v>
+        <v>19450</v>
       </c>
       <c r="F52">
-        <v>180</v>
+        <v>194.5</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -13945,10 +13945,10 @@
         <v>1500.0</v>
       </c>
       <c r="E53">
-        <v>150000</v>
+        <v>162010</v>
       </c>
       <c r="F53">
-        <v>1500</v>
+        <v>1620.1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -13990,10 +13990,10 @@
         <v>58.9</v>
       </c>
       <c r="E56">
-        <v>5890</v>
+        <v>6370</v>
       </c>
       <c r="F56">
-        <v>58.9</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -14010,10 +14010,10 @@
         <v>5.4</v>
       </c>
       <c r="E57">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="F57">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -14030,10 +14030,10 @@
         <v>42.8</v>
       </c>
       <c r="E58">
-        <v>4280</v>
+        <v>4630</v>
       </c>
       <c r="F58">
-        <v>42.8</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -14050,10 +14050,10 @@
         <v>53.5</v>
       </c>
       <c r="E59">
-        <v>5350</v>
+        <v>5780</v>
       </c>
       <c r="F59">
-        <v>53.5</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -14070,10 +14070,10 @@
         <v>26.8</v>
       </c>
       <c r="E60">
-        <v>2680</v>
+        <v>2900</v>
       </c>
       <c r="F60">
-        <v>26.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -14090,10 +14090,10 @@
         <v>48.2</v>
       </c>
       <c r="E61">
-        <v>4820</v>
+        <v>5210</v>
       </c>
       <c r="F61">
-        <v>48.2</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -14110,10 +14110,10 @@
         <v>35.3</v>
       </c>
       <c r="E62">
-        <v>3530</v>
+        <v>3820</v>
       </c>
       <c r="F62">
-        <v>35.3</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -14130,10 +14130,10 @@
         <v>8.0</v>
       </c>
       <c r="E63">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -14150,10 +14150,10 @@
         <v>3.2</v>
       </c>
       <c r="E64">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="F64">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -14170,10 +14170,10 @@
         <v>6.4</v>
       </c>
       <c r="E65">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="F65">
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -14190,10 +14190,10 @@
         <v>6.4</v>
       </c>
       <c r="E66">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="F66">
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -14210,10 +14210,10 @@
         <v>58.9</v>
       </c>
       <c r="E67">
-        <v>5890</v>
+        <v>6370</v>
       </c>
       <c r="F67">
-        <v>58.9</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -14230,10 +14230,10 @@
         <v>7.5</v>
       </c>
       <c r="E68">
-        <v>750</v>
+        <v>820</v>
       </c>
       <c r="F68">
-        <v>7.5</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -14250,10 +14250,10 @@
         <v>26.8</v>
       </c>
       <c r="E69">
-        <v>2680</v>
+        <v>2900</v>
       </c>
       <c r="F69">
-        <v>26.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -14270,10 +14270,10 @@
         <v>5.4</v>
       </c>
       <c r="E70">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="F70">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -14290,10 +14290,10 @@
         <v>75.4</v>
       </c>
       <c r="E71">
-        <v>7540</v>
+        <v>8150</v>
       </c>
       <c r="F71">
-        <v>75.4</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -14310,10 +14310,10 @@
         <v>58.9</v>
       </c>
       <c r="E72">
-        <v>5890</v>
+        <v>6370</v>
       </c>
       <c r="F72">
-        <v>58.9</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -14330,10 +14330,10 @@
         <v>53.5</v>
       </c>
       <c r="E73">
-        <v>5350</v>
+        <v>5780</v>
       </c>
       <c r="F73">
-        <v>53.5</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -14350,10 +14350,10 @@
         <v>117.7</v>
       </c>
       <c r="E74">
-        <v>11770</v>
+        <v>12720</v>
       </c>
       <c r="F74">
-        <v>117.7</v>
+        <v>127.2</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -14370,10 +14370,10 @@
         <v>10.7</v>
       </c>
       <c r="E75">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F75">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -14390,10 +14390,10 @@
         <v>42.8</v>
       </c>
       <c r="E76">
-        <v>4280</v>
+        <v>4630</v>
       </c>
       <c r="F76">
-        <v>42.8</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -14410,10 +14410,10 @@
         <v>16.1</v>
       </c>
       <c r="E77">
-        <v>1610</v>
+        <v>1740</v>
       </c>
       <c r="F77">
-        <v>16.1</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -14430,10 +14430,10 @@
         <v>45.0</v>
       </c>
       <c r="E78">
-        <v>4500</v>
+        <v>4870</v>
       </c>
       <c r="F78">
-        <v>45</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -14450,10 +14450,10 @@
         <v>53.5</v>
       </c>
       <c r="E79">
-        <v>5350</v>
+        <v>5780</v>
       </c>
       <c r="F79">
-        <v>53.5</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -14495,10 +14495,10 @@
         <v>3.5</v>
       </c>
       <c r="E82">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F82">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -14515,10 +14515,10 @@
         <v>3.5</v>
       </c>
       <c r="E83">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F83">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -14535,10 +14535,10 @@
         <v>3.5</v>
       </c>
       <c r="E84">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F84">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -14555,10 +14555,10 @@
         <v>3.7</v>
       </c>
       <c r="E85">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F85">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -14575,10 +14575,10 @@
         <v>3.5</v>
       </c>
       <c r="E86">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F86">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -14620,10 +14620,10 @@
         <v>21.4</v>
       </c>
       <c r="E89">
-        <v>2140</v>
+        <v>2320</v>
       </c>
       <c r="F89">
-        <v>21.4</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -14640,10 +14640,10 @@
         <v>10.7</v>
       </c>
       <c r="E90">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F90">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -14660,10 +14660,10 @@
         <v>5.9</v>
       </c>
       <c r="E91">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F91">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -14680,10 +14680,10 @@
         <v>123.6</v>
       </c>
       <c r="E92">
-        <v>12360</v>
+        <v>13350</v>
       </c>
       <c r="F92">
-        <v>123.6</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -14700,10 +14700,10 @@
         <v>16.1</v>
       </c>
       <c r="E93">
-        <v>1610</v>
+        <v>1740</v>
       </c>
       <c r="F93">
-        <v>16.1</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -14720,10 +14720,10 @@
         <v>2.4</v>
       </c>
       <c r="E94">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F94">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -14765,10 +14765,10 @@
         <v>17.1</v>
       </c>
       <c r="E97">
-        <v>1710</v>
+        <v>1850</v>
       </c>
       <c r="F97">
-        <v>17.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -14785,10 +14785,10 @@
         <v>58.9</v>
       </c>
       <c r="E98">
-        <v>5890</v>
+        <v>6370</v>
       </c>
       <c r="F98">
-        <v>58.9</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -14805,10 +14805,10 @@
         <v>17.1</v>
       </c>
       <c r="E99">
-        <v>1710</v>
+        <v>1850</v>
       </c>
       <c r="F99">
-        <v>17.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -14825,10 +14825,10 @@
         <v>10.7</v>
       </c>
       <c r="E100">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F100">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -14845,10 +14845,10 @@
         <v>53.5</v>
       </c>
       <c r="E101">
-        <v>5350</v>
+        <v>5780</v>
       </c>
       <c r="F101">
-        <v>53.5</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -14865,10 +14865,10 @@
         <v>3.2</v>
       </c>
       <c r="E102">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="F102">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -14885,10 +14885,10 @@
         <v>112.4</v>
       </c>
       <c r="E103">
-        <v>11240</v>
+        <v>12140</v>
       </c>
       <c r="F103">
-        <v>112.4</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -14905,10 +14905,10 @@
         <v>6.4</v>
       </c>
       <c r="E104">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="F104">
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -14925,10 +14925,10 @@
         <v>17.1</v>
       </c>
       <c r="E105">
-        <v>1710</v>
+        <v>1850</v>
       </c>
       <c r="F105">
-        <v>17.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -14945,10 +14945,10 @@
         <v>128.4</v>
       </c>
       <c r="E106">
-        <v>12840</v>
+        <v>13870</v>
       </c>
       <c r="F106">
-        <v>128.4</v>
+        <v>138.7</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -14965,10 +14965,10 @@
         <v>18.2</v>
       </c>
       <c r="E107">
-        <v>1820</v>
+        <v>1970</v>
       </c>
       <c r="F107">
-        <v>18.2</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -14985,10 +14985,10 @@
         <v>16.1</v>
       </c>
       <c r="E108">
-        <v>1610</v>
+        <v>1740</v>
       </c>
       <c r="F108">
-        <v>16.1</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -15005,10 +15005,10 @@
         <v>17.1</v>
       </c>
       <c r="E109">
-        <v>1710</v>
+        <v>1850</v>
       </c>
       <c r="F109">
-        <v>17.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -15025,10 +15025,10 @@
         <v>85.6</v>
       </c>
       <c r="E110">
-        <v>8560</v>
+        <v>9250</v>
       </c>
       <c r="F110">
-        <v>85.6</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -15045,10 +15045,10 @@
         <v>50.8</v>
       </c>
       <c r="E111">
-        <v>5080</v>
+        <v>5490</v>
       </c>
       <c r="F111">
-        <v>50.8</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -15090,10 +15090,10 @@
         <v>181.9</v>
       </c>
       <c r="E114">
-        <v>18190</v>
+        <v>19650</v>
       </c>
       <c r="F114">
-        <v>181.9</v>
+        <v>196.5</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -15110,10 +15110,10 @@
         <v>203.3</v>
       </c>
       <c r="E115">
-        <v>20330</v>
+        <v>21960</v>
       </c>
       <c r="F115">
-        <v>203.3</v>
+        <v>219.6</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -15130,10 +15130,10 @@
         <v>128.4</v>
       </c>
       <c r="E116">
-        <v>12840</v>
+        <v>13870</v>
       </c>
       <c r="F116">
-        <v>128.4</v>
+        <v>138.7</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -15150,10 +15150,10 @@
         <v>107.0</v>
       </c>
       <c r="E117">
-        <v>10700</v>
+        <v>11560</v>
       </c>
       <c r="F117">
-        <v>107</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -15170,10 +15170,10 @@
         <v>160.5</v>
       </c>
       <c r="E118">
-        <v>16050</v>
+        <v>17340</v>
       </c>
       <c r="F118">
-        <v>160.5</v>
+        <v>173.4</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -15190,10 +15190,10 @@
         <v>181.9</v>
       </c>
       <c r="E119">
-        <v>18190</v>
+        <v>19650</v>
       </c>
       <c r="F119">
-        <v>181.9</v>
+        <v>196.5</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -15210,10 +15210,10 @@
         <v>139.1</v>
       </c>
       <c r="E120">
-        <v>13910</v>
+        <v>15030</v>
       </c>
       <c r="F120">
-        <v>139.1</v>
+        <v>150.3</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -15230,10 +15230,10 @@
         <v>160.5</v>
       </c>
       <c r="E121">
-        <v>16050</v>
+        <v>17340</v>
       </c>
       <c r="F121">
-        <v>160.5</v>
+        <v>173.4</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -15250,10 +15250,10 @@
         <v>85.6</v>
       </c>
       <c r="E122">
-        <v>8560</v>
+        <v>9250</v>
       </c>
       <c r="F122">
-        <v>85.6</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -15270,10 +15270,10 @@
         <v>107.0</v>
       </c>
       <c r="E123">
-        <v>10700</v>
+        <v>11560</v>
       </c>
       <c r="F123">
-        <v>107</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -15290,10 +15290,10 @@
         <v>250.0</v>
       </c>
       <c r="E124">
-        <v>25000</v>
+        <v>27010</v>
       </c>
       <c r="F124">
-        <v>250</v>
+        <v>270.1</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -15310,10 +15310,10 @@
         <v>250.0</v>
       </c>
       <c r="E125">
-        <v>25000</v>
+        <v>27010</v>
       </c>
       <c r="F125">
-        <v>250</v>
+        <v>270.1</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -15330,10 +15330,10 @@
         <v>25.0</v>
       </c>
       <c r="E126">
-        <v>2500</v>
+        <v>2710</v>
       </c>
       <c r="F126">
-        <v>25</v>
+        <v>27.1</v>
       </c>
     </row>
   </sheetData>
@@ -15353,7 +15353,7 @@
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;CОртопедическое лечение</oddHeader>
-    <oddFooter>&amp;L25.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
+    <oddFooter>&amp;L26.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -15432,10 +15432,10 @@
         <v>10.7</v>
       </c>
       <c r="E4">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F4">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -15452,10 +15452,10 @@
         <v>2.1</v>
       </c>
       <c r="E5">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F5">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -15472,10 +15472,10 @@
         <v>107.0</v>
       </c>
       <c r="E6">
-        <v>10700</v>
+        <v>11560</v>
       </c>
       <c r="F6">
-        <v>107</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -15492,10 +15492,10 @@
         <v>28.9</v>
       </c>
       <c r="E7">
-        <v>2890</v>
+        <v>3130</v>
       </c>
       <c r="F7">
-        <v>28.9</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -15512,10 +15512,10 @@
         <v>10.7</v>
       </c>
       <c r="E8">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F8">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -15532,10 +15532,10 @@
         <v>25.0</v>
       </c>
       <c r="E9">
-        <v>2500</v>
+        <v>2710</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -15552,10 +15552,10 @@
         <v>10.7</v>
       </c>
       <c r="E10">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F10">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -15572,10 +15572,10 @@
         <v>64.2</v>
       </c>
       <c r="E11">
-        <v>6420</v>
+        <v>6940</v>
       </c>
       <c r="F11">
-        <v>64.2</v>
+        <v>69.4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -15592,10 +15592,10 @@
         <v>10.7</v>
       </c>
       <c r="E12">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F12">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -15612,10 +15612,10 @@
         <v>10.7</v>
       </c>
       <c r="E13">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="F13">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -15632,10 +15632,10 @@
         <v>3.7</v>
       </c>
       <c r="E14">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F14">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -15652,10 +15652,10 @@
         <v>5.4</v>
       </c>
       <c r="E15">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="F15">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -15672,10 +15672,10 @@
         <v>91.0</v>
       </c>
       <c r="E16">
-        <v>9100</v>
+        <v>9830</v>
       </c>
       <c r="F16">
-        <v>91</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -15692,10 +15692,10 @@
         <v>9.1</v>
       </c>
       <c r="E17">
-        <v>910</v>
+        <v>990</v>
       </c>
       <c r="F17">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -15712,10 +15712,10 @@
         <v>12.8</v>
       </c>
       <c r="E18">
-        <v>1280</v>
+        <v>1390</v>
       </c>
       <c r="F18">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -15732,10 +15732,10 @@
         <v>12.8</v>
       </c>
       <c r="E19">
-        <v>1280</v>
+        <v>1390</v>
       </c>
       <c r="F19">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -15752,10 +15752,10 @@
         <v>30.0</v>
       </c>
       <c r="E20">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="F20">
-        <v>30</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -15772,10 +15772,10 @@
         <v>40.0</v>
       </c>
       <c r="E21">
-        <v>4000</v>
+        <v>4330</v>
       </c>
       <c r="F21">
-        <v>40</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -15792,10 +15792,10 @@
         <v>40.0</v>
       </c>
       <c r="E22">
-        <v>4000</v>
+        <v>4330</v>
       </c>
       <c r="F22">
-        <v>40</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -15837,10 +15837,10 @@
         <v>5.9</v>
       </c>
       <c r="E25">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F25">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -15857,10 +15857,10 @@
         <v>2.2</v>
       </c>
       <c r="E26">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F26">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -15877,10 +15877,10 @@
         <v>128.4</v>
       </c>
       <c r="E27">
-        <v>12840</v>
+        <v>13870</v>
       </c>
       <c r="F27">
-        <v>128.4</v>
+        <v>138.7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -15922,10 +15922,10 @@
         <v>12.8</v>
       </c>
       <c r="E30">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="F30">
-        <v>12.8</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -15942,10 +15942,10 @@
         <v>50.8</v>
       </c>
       <c r="E31">
-        <v>5080</v>
+        <v>5490</v>
       </c>
       <c r="F31">
-        <v>50.8</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -15962,10 +15962,10 @@
         <v>45.0</v>
       </c>
       <c r="E32">
-        <v>4500</v>
+        <v>4870</v>
       </c>
       <c r="F32">
-        <v>45</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -15982,10 +15982,10 @@
         <v>60.0</v>
       </c>
       <c r="E33">
-        <v>6000</v>
+        <v>6490</v>
       </c>
       <c r="F33">
-        <v>60</v>
+        <v>64.9</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -16002,10 +16002,10 @@
         <v>58.9</v>
       </c>
       <c r="E34">
-        <v>5890</v>
+        <v>6370</v>
       </c>
       <c r="F34">
-        <v>58.9</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -16022,10 +16022,10 @@
         <v>125.0</v>
       </c>
       <c r="E35">
-        <v>12500</v>
+        <v>13510</v>
       </c>
       <c r="F35">
-        <v>125</v>
+        <v>135.1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -16042,10 +16042,10 @@
         <v>299.6</v>
       </c>
       <c r="E36">
-        <v>35000</v>
+        <v>37810</v>
       </c>
       <c r="F36">
-        <v>299.6</v>
+        <v>323.57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -16062,10 +16062,10 @@
         <v>150.0</v>
       </c>
       <c r="E37">
-        <v>15000</v>
+        <v>16210</v>
       </c>
       <c r="F37">
-        <v>150</v>
+        <v>162.1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -16082,10 +16082,10 @@
         <v>40.0</v>
       </c>
       <c r="E38">
-        <v>4000</v>
+        <v>4330</v>
       </c>
       <c r="F38">
-        <v>40</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -16102,10 +16102,10 @@
         <v>250.0</v>
       </c>
       <c r="E39">
-        <v>25000</v>
+        <v>27010</v>
       </c>
       <c r="F39">
-        <v>250</v>
+        <v>270.1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -16122,10 +16122,10 @@
         <v>10.0</v>
       </c>
       <c r="E40">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -16142,10 +16142,10 @@
         <v>10.0</v>
       </c>
       <c r="E41">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -16162,10 +16162,10 @@
         <v>85.0</v>
       </c>
       <c r="E42">
-        <v>8500</v>
+        <v>9190</v>
       </c>
       <c r="F42">
-        <v>85</v>
+        <v>91.9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -16207,10 +16207,10 @@
         <v>12.8</v>
       </c>
       <c r="E45">
-        <v>1280</v>
+        <v>1390</v>
       </c>
       <c r="F45">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -16227,10 +16227,10 @@
         <v>3.2</v>
       </c>
       <c r="E46">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="F46">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -16247,10 +16247,10 @@
         <v>14.0</v>
       </c>
       <c r="E47">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="F47">
-        <v>14</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -16267,10 +16267,10 @@
         <v>6.4</v>
       </c>
       <c r="E48">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="F48">
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -16287,10 +16287,10 @@
         <v>3.7</v>
       </c>
       <c r="E49">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F49">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -16307,10 +16307,10 @@
         <v>5.9</v>
       </c>
       <c r="E50">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F50">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -16352,10 +16352,10 @@
         <v>1.0</v>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -16372,10 +16372,10 @@
         <v>2.7</v>
       </c>
       <c r="E54">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="F54">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -16392,10 +16392,10 @@
         <v>2.7</v>
       </c>
       <c r="E55">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="F55">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -16412,10 +16412,10 @@
         <v>5.9</v>
       </c>
       <c r="E56">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F56">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -16432,10 +16432,10 @@
         <v>5.9</v>
       </c>
       <c r="E57">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F57">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -16452,10 +16452,10 @@
         <v>5.4</v>
       </c>
       <c r="E58">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="F58">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -16472,10 +16472,10 @@
         <v>2.1</v>
       </c>
       <c r="E59">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F59">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -16492,10 +16492,10 @@
         <v>5.9</v>
       </c>
       <c r="E60">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F60">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -16512,10 +16512,10 @@
         <v>8.0</v>
       </c>
       <c r="E61">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -16532,10 +16532,10 @@
         <v>5.9</v>
       </c>
       <c r="E62">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F62">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -16552,10 +16552,10 @@
         <v>2.1</v>
       </c>
       <c r="E63">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F63">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -16572,10 +16572,10 @@
         <v>5.4</v>
       </c>
       <c r="E64">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="F64">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -16592,10 +16592,10 @@
         <v>2.1</v>
       </c>
       <c r="E65">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F65">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -16612,10 +16612,10 @@
         <v>1.6</v>
       </c>
       <c r="E66">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="F66">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -16632,10 +16632,10 @@
         <v>10.0</v>
       </c>
       <c r="E67">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -16652,10 +16652,10 @@
         <v>1.6</v>
       </c>
       <c r="E68">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="F68">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -16672,10 +16672,10 @@
         <v>10.0</v>
       </c>
       <c r="E69">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -16692,10 +16692,10 @@
         <v>15.0</v>
       </c>
       <c r="E70">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="F70">
-        <v>15</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -16712,10 +16712,10 @@
         <v>10.0</v>
       </c>
       <c r="E71">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -16732,10 +16732,10 @@
         <v>5.9</v>
       </c>
       <c r="E72">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F72">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -16752,10 +16752,10 @@
         <v>5.9</v>
       </c>
       <c r="E73">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F73">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -16772,10 +16772,10 @@
         <v>33.7</v>
       </c>
       <c r="E74">
-        <v>3370</v>
+        <v>3640</v>
       </c>
       <c r="F74">
-        <v>33.7</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -16792,10 +16792,10 @@
         <v>250.0</v>
       </c>
       <c r="E75">
-        <v>25000</v>
+        <v>27010</v>
       </c>
       <c r="F75">
-        <v>250</v>
+        <v>270.1</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -16812,10 +16812,10 @@
         <v>60.0</v>
       </c>
       <c r="E76">
-        <v>6000</v>
+        <v>6490</v>
       </c>
       <c r="F76">
-        <v>60</v>
+        <v>64.9</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -16857,10 +16857,10 @@
         <v>267.5</v>
       </c>
       <c r="E79">
-        <v>26750</v>
+        <v>28900</v>
       </c>
       <c r="F79">
-        <v>267.5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -16877,10 +16877,10 @@
         <v>37.5</v>
       </c>
       <c r="E80">
-        <v>3750</v>
+        <v>4060</v>
       </c>
       <c r="F80">
-        <v>37.5</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -16922,10 +16922,10 @@
         <v>1.4</v>
       </c>
       <c r="E83">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F83">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -16942,10 +16942,10 @@
         <v>25.0</v>
       </c>
       <c r="E84">
-        <v>2500</v>
+        <v>2710</v>
       </c>
       <c r="F84">
-        <v>25</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -16962,10 +16962,10 @@
         <v>10.0</v>
       </c>
       <c r="E85">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -16982,10 +16982,10 @@
         <v>20.0</v>
       </c>
       <c r="E86">
-        <v>2000</v>
+        <v>2170</v>
       </c>
       <c r="F86">
-        <v>20</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -17002,10 +17002,10 @@
         <v>6.0</v>
       </c>
       <c r="E87">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -17022,10 +17022,10 @@
         <v>25.0</v>
       </c>
       <c r="E88">
-        <v>2500</v>
+        <v>2710</v>
       </c>
       <c r="F88">
-        <v>25</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -17042,10 +17042,10 @@
         <v>2.4</v>
       </c>
       <c r="E89">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F89">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -17062,10 +17062,10 @@
         <v>5.0</v>
       </c>
       <c r="E90">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -17082,10 +17082,10 @@
         <v>20.0</v>
       </c>
       <c r="E91">
-        <v>2000</v>
+        <v>2170</v>
       </c>
       <c r="F91">
-        <v>20</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -17102,10 +17102,10 @@
         <v>7.5</v>
       </c>
       <c r="E92">
-        <v>750</v>
+        <v>820</v>
       </c>
       <c r="F92">
-        <v>7.5</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -17147,10 +17147,10 @@
         <v>123.6</v>
       </c>
       <c r="E95">
-        <v>12360</v>
+        <v>13350</v>
       </c>
       <c r="F95">
-        <v>123.6</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -17167,10 +17167,10 @@
         <v>30.0</v>
       </c>
       <c r="E96">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="F96">
-        <v>30</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -17187,10 +17187,10 @@
         <v>123.6</v>
       </c>
       <c r="E97">
-        <v>12360</v>
+        <v>13350</v>
       </c>
       <c r="F97">
-        <v>123.6</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -17207,10 +17207,10 @@
         <v>42.8</v>
       </c>
       <c r="E98">
-        <v>4280</v>
+        <v>4630</v>
       </c>
       <c r="F98">
-        <v>42.8</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -17227,10 +17227,10 @@
         <v>4.8</v>
       </c>
       <c r="E99">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="F99">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -17247,10 +17247,10 @@
         <v>20.3</v>
       </c>
       <c r="E100">
-        <v>2030</v>
+        <v>2200</v>
       </c>
       <c r="F100">
-        <v>20.3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -17267,10 +17267,10 @@
         <v>171.2</v>
       </c>
       <c r="E101">
-        <v>17120</v>
+        <v>18490</v>
       </c>
       <c r="F101">
-        <v>171.2</v>
+        <v>184.9</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -17287,10 +17287,10 @@
         <v>171.2</v>
       </c>
       <c r="E102">
-        <v>17120</v>
+        <v>18490</v>
       </c>
       <c r="F102">
-        <v>171.2</v>
+        <v>184.9</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -17307,10 +17307,10 @@
         <v>123.6</v>
       </c>
       <c r="E103">
-        <v>12360</v>
+        <v>13350</v>
       </c>
       <c r="F103">
-        <v>123.6</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -17327,10 +17327,10 @@
         <v>1.1</v>
       </c>
       <c r="E104">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F104">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -17372,10 +17372,10 @@
         <v>25.0</v>
       </c>
       <c r="E107">
-        <v>2500</v>
+        <v>2710</v>
       </c>
       <c r="F107">
-        <v>25</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -17392,10 +17392,10 @@
         <v>50.0</v>
       </c>
       <c r="E108">
-        <v>5000</v>
+        <v>5410</v>
       </c>
       <c r="F108">
-        <v>50</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -17412,10 +17412,10 @@
         <v>80.0</v>
       </c>
       <c r="E109">
-        <v>8000</v>
+        <v>8650</v>
       </c>
       <c r="F109">
-        <v>80</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -17432,10 +17432,10 @@
         <v>100.0</v>
       </c>
       <c r="E110">
-        <v>10000</v>
+        <v>10810</v>
       </c>
       <c r="F110">
-        <v>100</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -17452,10 +17452,10 @@
         <v>20.0</v>
       </c>
       <c r="E111">
-        <v>2000</v>
+        <v>2170</v>
       </c>
       <c r="F111">
-        <v>20</v>
+        <v>21.7</v>
       </c>
     </row>
   </sheetData>
@@ -17477,7 +17477,7 @@
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;CОртодонтическое лечение</oddHeader>
-    <oddFooter>&amp;L25.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
+    <oddFooter>&amp;L26.05.2021&amp;RДиректор ООО "Орто-Премьер" Черненко С.В.</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
